--- a/assets1/contactDetails (33).xlsx
+++ b/assets1/contactDetails (33).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>TITLE</t>
   </si>
@@ -78,15 +78,15 @@
     <t>rhhrt</t>
   </si>
   <si>
+    <t>yth</t>
+  </si>
+  <si>
     <t>rtyu</t>
   </si>
   <si>
     <t>trtere</t>
   </si>
   <si>
-    <t>hrtrt</t>
-  </si>
-  <si>
     <t>aga@gmail.com</t>
   </si>
   <si>
@@ -108,13 +108,16 @@
     <t>abc</t>
   </si>
   <si>
+    <t>uyt</t>
+  </si>
+  <si>
     <t>tyuj</t>
   </si>
   <si>
     <t>hgf</t>
   </si>
   <si>
-    <t>dev@gmail.com</t>
+    <t>devpg@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Office staff</t>
@@ -141,9 +144,6 @@
     <t>kanv@gmail.com</t>
   </si>
   <si>
-    <t>Security</t>
-  </si>
-  <si>
     <t>Nandha</t>
   </si>
   <si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>nan@gmail.com</t>
-  </si>
-  <si>
-    <t>Manager,Accnt</t>
   </si>
 </sst>
 </file>
@@ -209,10 +206,9 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -770,16 +766,16 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
       <c r="H2">
         <v>6789</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -811,26 +807,29 @@
       <c r="F3" t="s">
         <v>29</v>
       </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
       <c r="H3">
         <v>7008</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3">
         <v>9876543310</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -838,43 +837,40 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>36444</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1000</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4">
         <v>9999999900</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -909,7 +905,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>49</v>
@@ -918,7 +914,7 @@
         <v>9898989898</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
